--- a/result/interactions_download/Pancreatic_cancer_precog_mut.xlsx
+++ b/result/interactions_download/Pancreatic_cancer_precog_mut.xlsx
@@ -3264,43 +3264,43 @@
     <t xml:space="preserve">RFPL1S</t>
   </si>
   <si>
+    <t xml:space="preserve">AURKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRK5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUFY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCRS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOOK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKBKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABLIM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAK1IP1</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOOK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAK1IP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AURKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABLIM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUFY1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IKBKG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCRS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRK5</t>
   </si>
 </sst>
 </file>
@@ -25112,6 +25112,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1075">
+      <c r="A1075" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1075"/>
+      <c r="C1075"/>
+      <c r="D1075"/>
+      <c r="E1075"/>
+      <c r="F1075"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1076"/>
+      <c r="C1076"/>
+      <c r="D1076"/>
+      <c r="E1076"/>
+      <c r="F1076"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1077"/>
+      <c r="C1077"/>
+      <c r="D1077"/>
+      <c r="E1077"/>
+      <c r="F1077"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1078"/>
+      <c r="C1078"/>
+      <c r="D1078"/>
+      <c r="E1078"/>
+      <c r="F1078"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1079"/>
+      <c r="C1079"/>
+      <c r="D1079"/>
+      <c r="E1079"/>
+      <c r="F1079"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1080"/>
+      <c r="C1080"/>
+      <c r="D1080"/>
+      <c r="E1080"/>
+      <c r="F1080"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1081"/>
+      <c r="C1081"/>
+      <c r="D1081"/>
+      <c r="E1081"/>
+      <c r="F1081"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1082"/>
+      <c r="C1082"/>
+      <c r="D1082"/>
+      <c r="E1082"/>
+      <c r="F1082"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1083"/>
+      <c r="C1083"/>
+      <c r="D1083"/>
+      <c r="E1083"/>
+      <c r="F1083"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1084"/>
+      <c r="C1084"/>
+      <c r="D1084"/>
+      <c r="E1084"/>
+      <c r="F1084"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1085"/>
+      <c r="C1085"/>
+      <c r="D1085"/>
+      <c r="E1085"/>
+      <c r="F1085"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -25128,10 +25238,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="B1" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2">
@@ -25219,7 +25329,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13">
@@ -25691,7 +25801,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="72">
@@ -25704,7 +25814,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -25744,7 +25854,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -25827,7 +25937,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="89">
@@ -26248,7 +26358,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -26731,7 +26841,7 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="202">
@@ -26955,7 +27065,7 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="230">
@@ -27483,7 +27593,7 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="296">
@@ -27560,7 +27670,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B305" t="s">
         <v>9</v>
@@ -28088,7 +28198,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B371" t="s">
         <v>10</v>
@@ -28387,7 +28497,7 @@
         <v>11</v>
       </c>
       <c r="B408" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="409">
@@ -29288,7 +29398,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B521" t="s">
         <v>13</v>
@@ -29432,7 +29542,7 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B539" t="s">
         <v>13</v>
@@ -29688,7 +29798,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B571" t="s">
         <v>13</v>
@@ -29899,7 +30009,7 @@
         <v>14</v>
       </c>
       <c r="B597" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="598">
@@ -30376,7 +30486,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B657" t="s">
         <v>15</v>
@@ -30512,7 +30622,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B674" t="s">
         <v>15</v>
@@ -30920,7 +31030,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B725" t="s">
         <v>17</v>
@@ -31112,7 +31222,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B749" t="s">
         <v>17</v>
@@ -31248,7 +31358,7 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B766" t="s">
         <v>17</v>
@@ -31400,7 +31510,7 @@
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B785" t="s">
         <v>18</v>
@@ -31627,7 +31737,7 @@
         <v>18</v>
       </c>
       <c r="B813" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="814">
@@ -32227,7 +32337,7 @@
         <v>19</v>
       </c>
       <c r="B888" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="889">
@@ -32928,7 +33038,7 @@
     </row>
     <row r="976">
       <c r="A976" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B976" t="s">
         <v>21</v>
@@ -32960,7 +33070,7 @@
     </row>
     <row r="980">
       <c r="A980" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B980" t="s">
         <v>21</v>
@@ -32984,7 +33094,7 @@
     </row>
     <row r="983">
       <c r="A983" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B983" t="s">
         <v>21</v>
@@ -33171,7 +33281,7 @@
         <v>21</v>
       </c>
       <c r="B1006" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1007">
@@ -33723,7 +33833,7 @@
         <v>22</v>
       </c>
       <c r="B1075" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1076">
@@ -33888,7 +33998,7 @@
     </row>
     <row r="1096">
       <c r="A1096" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B1096" t="s">
         <v>23</v>
@@ -34072,7 +34182,7 @@
     </row>
     <row r="1119">
       <c r="A1119" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1119" t="s">
         <v>23</v>
@@ -34656,7 +34766,7 @@
     </row>
     <row r="1192">
       <c r="A1192" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1192" t="s">
         <v>27</v>
@@ -35104,7 +35214,7 @@
     </row>
     <row r="1248">
       <c r="A1248" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1248" t="s">
         <v>28</v>
@@ -35304,7 +35414,7 @@
     </row>
     <row r="1273">
       <c r="A1273" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B1273" t="s">
         <v>28</v>
@@ -35408,7 +35518,7 @@
     </row>
     <row r="1286">
       <c r="A1286" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B1286" t="s">
         <v>29</v>
@@ -35627,7 +35737,7 @@
         <v>29</v>
       </c>
       <c r="B1313" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1314">
@@ -35808,7 +35918,7 @@
     </row>
     <row r="1336">
       <c r="A1336" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B1336" t="s">
         <v>30</v>
@@ -35984,7 +36094,7 @@
     </row>
     <row r="1358">
       <c r="A1358" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1358" t="s">
         <v>30</v>
@@ -36368,7 +36478,7 @@
     </row>
     <row r="1406">
       <c r="A1406" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1406" t="s">
         <v>31</v>
@@ -36632,7 +36742,7 @@
     </row>
     <row r="1439">
       <c r="A1439" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1439" t="s">
         <v>32</v>
@@ -37496,7 +37606,7 @@
     </row>
     <row r="1547">
       <c r="A1547" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B1547" t="s">
         <v>34</v>
@@ -37752,7 +37862,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B1579" t="s">
         <v>35</v>
@@ -38048,7 +38158,7 @@
     </row>
     <row r="1616">
       <c r="A1616" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1616" t="s">
         <v>36</v>
@@ -38219,7 +38329,7 @@
         <v>36</v>
       </c>
       <c r="B1637" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1638">
@@ -38363,7 +38473,7 @@
         <v>37</v>
       </c>
       <c r="B1655" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1656">
@@ -38579,7 +38689,7 @@
         <v>37</v>
       </c>
       <c r="B1682" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1683">
@@ -38704,7 +38814,7 @@
     </row>
     <row r="1698">
       <c r="A1698" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B1698" t="s">
         <v>38</v>
@@ -39336,7 +39446,7 @@
     </row>
     <row r="1777">
       <c r="A1777" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B1777" t="s">
         <v>40</v>
@@ -39344,7 +39454,7 @@
     </row>
     <row r="1778">
       <c r="A1778" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1778" t="s">
         <v>40</v>
@@ -40136,7 +40246,7 @@
     </row>
     <row r="1877">
       <c r="A1877" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B1877" t="s">
         <v>42</v>
@@ -40288,7 +40398,7 @@
     </row>
     <row r="1896">
       <c r="A1896" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B1896" t="s">
         <v>43</v>
@@ -40472,7 +40582,7 @@
     </row>
     <row r="1919">
       <c r="A1919" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B1919" t="s">
         <v>43</v>
@@ -40752,7 +40862,7 @@
     </row>
     <row r="1954">
       <c r="A1954" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B1954" t="s">
         <v>44</v>
@@ -41208,7 +41318,7 @@
     </row>
     <row r="2011">
       <c r="A2011" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B2011" t="s">
         <v>46</v>
@@ -41328,7 +41438,7 @@
     </row>
     <row r="2026">
       <c r="A2026" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B2026" t="s">
         <v>46</v>
@@ -41571,7 +41681,7 @@
         <v>47</v>
       </c>
       <c r="B2056" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2057">
@@ -42139,7 +42249,7 @@
         <v>50</v>
       </c>
       <c r="B2127" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2128">
@@ -42592,7 +42702,7 @@
     </row>
     <row r="2184">
       <c r="A2184" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B2184" t="s">
         <v>51</v>
@@ -42803,7 +42913,7 @@
         <v>52</v>
       </c>
       <c r="B2210" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2211">
@@ -43083,7 +43193,7 @@
         <v>53</v>
       </c>
       <c r="B2245" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2246">
@@ -43280,7 +43390,7 @@
     </row>
     <row r="2270">
       <c r="A2270" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B2270" t="s">
         <v>54</v>
@@ -43328,7 +43438,7 @@
     </row>
     <row r="2276">
       <c r="A2276" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B2276" t="s">
         <v>54</v>
@@ -43539,7 +43649,7 @@
         <v>55</v>
       </c>
       <c r="B2302" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2303">
@@ -43664,7 +43774,7 @@
     </row>
     <row r="2318">
       <c r="A2318" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B2318" t="s">
         <v>56</v>
@@ -43819,7 +43929,7 @@
         <v>56</v>
       </c>
       <c r="B2337" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2338">
@@ -44331,7 +44441,7 @@
         <v>58</v>
       </c>
       <c r="B2401" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2402">
@@ -44368,7 +44478,7 @@
     </row>
     <row r="2406">
       <c r="A2406" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B2406" t="s">
         <v>59</v>
@@ -44504,7 +44614,7 @@
     </row>
     <row r="2423">
       <c r="A2423" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B2423" t="s">
         <v>59</v>
@@ -44648,7 +44758,7 @@
     </row>
     <row r="2441">
       <c r="A2441" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B2441" t="s">
         <v>60</v>
@@ -44992,7 +45102,7 @@
     </row>
     <row r="2484">
       <c r="A2484" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B2484" t="s">
         <v>61</v>
@@ -45355,7 +45465,7 @@
         <v>62</v>
       </c>
       <c r="B2529" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2530">
@@ -45840,7 +45950,7 @@
     </row>
     <row r="2590">
       <c r="A2590" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B2590" t="s">
         <v>64</v>
@@ -45984,7 +46094,7 @@
     </row>
     <row r="2608">
       <c r="A2608" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B2608" t="s">
         <v>65</v>
@@ -46115,7 +46225,7 @@
         <v>65</v>
       </c>
       <c r="B2624" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2625">
@@ -46355,7 +46465,7 @@
         <v>66</v>
       </c>
       <c r="B2654" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2655">
@@ -46456,7 +46566,7 @@
     </row>
     <row r="2667">
       <c r="A2667" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B2667" t="s">
         <v>67</v>
@@ -46603,7 +46713,7 @@
         <v>67</v>
       </c>
       <c r="B2685" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2686">
@@ -46675,7 +46785,7 @@
         <v>68</v>
       </c>
       <c r="B2694" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="2695">
@@ -46704,7 +46814,7 @@
     </row>
     <row r="2698">
       <c r="A2698" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B2698" t="s">
         <v>68</v>
@@ -46891,7 +47001,7 @@
         <v>69</v>
       </c>
       <c r="B2721" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2722">
@@ -46968,7 +47078,7 @@
     </row>
     <row r="2731">
       <c r="A2731" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B2731" t="s">
         <v>69</v>
@@ -47051,7 +47161,7 @@
         <v>69</v>
       </c>
       <c r="B2741" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2742">
@@ -47200,7 +47310,7 @@
     </row>
     <row r="2760">
       <c r="A2760" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B2760" t="s">
         <v>70</v>
@@ -47283,7 +47393,7 @@
         <v>70</v>
       </c>
       <c r="B2770" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2771">
@@ -47376,7 +47486,7 @@
     </row>
     <row r="2782">
       <c r="A2782" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B2782" t="s">
         <v>71</v>
@@ -47459,7 +47569,7 @@
         <v>72</v>
       </c>
       <c r="B2792" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="2793">
@@ -47872,7 +47982,7 @@
     </row>
     <row r="2844">
       <c r="A2844" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B2844" t="s">
         <v>73</v>
@@ -47976,7 +48086,7 @@
     </row>
     <row r="2857">
       <c r="A2857" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B2857" t="s">
         <v>74</v>
@@ -48144,7 +48254,7 @@
     </row>
     <row r="2878">
       <c r="A2878" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B2878" t="s">
         <v>75</v>
@@ -48152,7 +48262,7 @@
     </row>
     <row r="2879">
       <c r="A2879" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B2879" t="s">
         <v>75</v>
@@ -48256,7 +48366,7 @@
     </row>
     <row r="2892">
       <c r="A2892" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B2892" t="s">
         <v>75</v>
@@ -48296,7 +48406,7 @@
     </row>
     <row r="2897">
       <c r="A2897" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B2897" t="s">
         <v>76</v>
@@ -48312,7 +48422,7 @@
     </row>
     <row r="2899">
       <c r="A2899" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B2899" t="s">
         <v>76</v>
@@ -48888,7 +48998,7 @@
     </row>
     <row r="2971">
       <c r="A2971" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B2971" t="s">
         <v>78</v>
@@ -48955,7 +49065,7 @@
         <v>78</v>
       </c>
       <c r="B2979" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2980">
@@ -49219,7 +49329,7 @@
         <v>79</v>
       </c>
       <c r="B3012" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3013">
@@ -49856,7 +49966,7 @@
     </row>
     <row r="3092">
       <c r="A3092" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B3092" t="s">
         <v>83</v>
@@ -49920,7 +50030,7 @@
     </row>
     <row r="3100">
       <c r="A3100" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B3100" t="s">
         <v>83</v>
@@ -50152,7 +50262,7 @@
     </row>
     <row r="3129">
       <c r="A3129" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B3129" t="s">
         <v>84</v>
@@ -50595,7 +50705,7 @@
         <v>86</v>
       </c>
       <c r="B3184" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3185">
@@ -51035,7 +51145,7 @@
         <v>88</v>
       </c>
       <c r="B3239" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3240">
@@ -51216,7 +51326,7 @@
     </row>
     <row r="3262">
       <c r="A3262" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B3262" t="s">
         <v>89</v>
@@ -51475,7 +51585,7 @@
         <v>91</v>
       </c>
       <c r="B3294" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3295">
@@ -51752,7 +51862,7 @@
     </row>
     <row r="3329">
       <c r="A3329" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B3329" t="s">
         <v>92</v>
@@ -51760,7 +51870,7 @@
     </row>
     <row r="3330">
       <c r="A3330" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B3330" t="s">
         <v>92</v>
@@ -51848,7 +51958,7 @@
     </row>
     <row r="3341">
       <c r="A3341" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B3341" t="s">
         <v>93</v>
@@ -51896,7 +52006,7 @@
     </row>
     <row r="3347">
       <c r="A3347" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B3347" t="s">
         <v>93</v>
@@ -52128,7 +52238,7 @@
     </row>
     <row r="3376">
       <c r="A3376" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B3376" t="s">
         <v>94</v>
@@ -52299,7 +52409,7 @@
         <v>95</v>
       </c>
       <c r="B3397" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3398">
@@ -52491,7 +52601,7 @@
         <v>96</v>
       </c>
       <c r="B3421" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3422">
@@ -52595,7 +52705,7 @@
         <v>97</v>
       </c>
       <c r="B3434" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3435">
@@ -52667,7 +52777,7 @@
         <v>98</v>
       </c>
       <c r="B3443" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3444">
@@ -52755,7 +52865,7 @@
         <v>98</v>
       </c>
       <c r="B3454" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3455">
@@ -53011,7 +53121,7 @@
         <v>99</v>
       </c>
       <c r="B3486" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3487">
@@ -53088,7 +53198,7 @@
     </row>
     <row r="3496">
       <c r="A3496" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B3496" t="s">
         <v>100</v>
@@ -53339,7 +53449,7 @@
         <v>101</v>
       </c>
       <c r="B3527" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3528">
@@ -53400,7 +53510,7 @@
     </row>
     <row r="3535">
       <c r="A3535" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B3535" t="s">
         <v>102</v>
@@ -53584,7 +53694,7 @@
     </row>
     <row r="3558">
       <c r="A3558" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B3558" t="s">
         <v>103</v>
@@ -53803,7 +53913,7 @@
         <v>104</v>
       </c>
       <c r="B3585" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3586">
@@ -54712,7 +54822,7 @@
     </row>
     <row r="3699">
       <c r="A3699" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B3699" t="s">
         <v>110</v>
@@ -55088,7 +55198,7 @@
     </row>
     <row r="3746">
       <c r="A3746" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B3746" t="s">
         <v>112</v>
@@ -55243,7 +55353,7 @@
         <v>113</v>
       </c>
       <c r="B3765" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3766">
@@ -55400,7 +55510,7 @@
     </row>
     <row r="3785">
       <c r="A3785" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B3785" t="s">
         <v>114</v>
@@ -55819,7 +55929,7 @@
         <v>117</v>
       </c>
       <c r="B3837" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3838">
@@ -55963,7 +56073,7 @@
         <v>117</v>
       </c>
       <c r="B3855" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3856">
@@ -56083,7 +56193,7 @@
         <v>118</v>
       </c>
       <c r="B3870" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3871">
@@ -56123,7 +56233,7 @@
         <v>119</v>
       </c>
       <c r="B3875" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3876">
@@ -56267,7 +56377,7 @@
         <v>119</v>
       </c>
       <c r="B3893" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3894">
@@ -56440,7 +56550,7 @@
     </row>
     <row r="3915">
       <c r="A3915" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B3915" t="s">
         <v>120</v>
@@ -56939,7 +57049,7 @@
         <v>124</v>
       </c>
       <c r="B3977" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3978">
@@ -57027,7 +57137,7 @@
         <v>124</v>
       </c>
       <c r="B3988" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3989">
@@ -57035,7 +57145,7 @@
         <v>124</v>
       </c>
       <c r="B3989" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3990">
@@ -57379,12 +57489,12 @@
         <v>126</v>
       </c>
       <c r="B4032" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4033">
       <c r="A4033" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B4033" t="s">
         <v>127</v>
@@ -57408,7 +57518,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B4036" t="s">
         <v>127</v>
@@ -57472,7 +57582,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4044" t="s">
         <v>127</v>
@@ -57947,7 +58057,7 @@
         <v>131</v>
       </c>
       <c r="B4103" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="4104">
@@ -58123,7 +58233,7 @@
         <v>132</v>
       </c>
       <c r="B4125" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4126">
@@ -58856,7 +58966,7 @@
     </row>
     <row r="4217">
       <c r="A4217" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4217" t="s">
         <v>138</v>
@@ -59264,7 +59374,7 @@
     </row>
     <row r="4268">
       <c r="A4268" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B4268" t="s">
         <v>141</v>
@@ -59624,7 +59734,7 @@
     </row>
     <row r="4313">
       <c r="A4313" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4313" t="s">
         <v>145</v>
@@ -59675,7 +59785,7 @@
         <v>145</v>
       </c>
       <c r="B4319" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4320">
@@ -59904,7 +60014,7 @@
     </row>
     <row r="4348">
       <c r="A4348" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4348" t="s">
         <v>146</v>
@@ -60040,7 +60150,7 @@
     </row>
     <row r="4365">
       <c r="A4365" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B4365" t="s">
         <v>147</v>
@@ -60315,7 +60425,7 @@
         <v>149</v>
       </c>
       <c r="B4399" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4400">
@@ -60411,7 +60521,7 @@
         <v>150</v>
       </c>
       <c r="B4411" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4412">
@@ -60456,7 +60566,7 @@
     </row>
     <row r="4417">
       <c r="A4417" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B4417" t="s">
         <v>151</v>
@@ -60600,7 +60710,7 @@
     </row>
     <row r="4435">
       <c r="A4435" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B4435" t="s">
         <v>152</v>
@@ -61040,7 +61150,7 @@
     </row>
     <row r="4490">
       <c r="A4490" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B4490" t="s">
         <v>157</v>
@@ -61075,7 +61185,7 @@
         <v>157</v>
       </c>
       <c r="B4494" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4495">
@@ -61392,7 +61502,7 @@
     </row>
     <row r="4534">
       <c r="A4534" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B4534" t="s">
         <v>160</v>
@@ -61472,7 +61582,7 @@
     </row>
     <row r="4544">
       <c r="A4544" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B4544" t="s">
         <v>160</v>
@@ -62171,7 +62281,7 @@
         <v>167</v>
       </c>
       <c r="B4631" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4632">
@@ -62411,7 +62521,7 @@
         <v>170</v>
       </c>
       <c r="B4661" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4662">
@@ -62624,7 +62734,7 @@
     </row>
     <row r="4688">
       <c r="A4688" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B4688" t="s">
         <v>171</v>
@@ -62808,7 +62918,7 @@
     </row>
     <row r="4711">
       <c r="A4711" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4711" t="s">
         <v>173</v>
@@ -62979,7 +63089,7 @@
         <v>174</v>
       </c>
       <c r="B4732" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4733">
@@ -63064,7 +63174,7 @@
     </row>
     <row r="4743">
       <c r="A4743" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B4743" t="s">
         <v>175</v>
@@ -63296,7 +63406,7 @@
     </row>
     <row r="4772">
       <c r="A4772" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4772" t="s">
         <v>177</v>
@@ -63395,7 +63505,7 @@
         <v>178</v>
       </c>
       <c r="B4784" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4785">
@@ -64019,7 +64129,7 @@
         <v>185</v>
       </c>
       <c r="B4862" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4863">
@@ -64099,7 +64209,7 @@
         <v>186</v>
       </c>
       <c r="B4872" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4873">
@@ -64147,7 +64257,7 @@
         <v>186</v>
       </c>
       <c r="B4878" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4879">
@@ -64563,7 +64673,7 @@
         <v>191</v>
       </c>
       <c r="B4930" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4931">
@@ -64632,7 +64742,7 @@
     </row>
     <row r="4939">
       <c r="A4939" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B4939" t="s">
         <v>192</v>
@@ -64704,7 +64814,7 @@
     </row>
     <row r="4948">
       <c r="A4948" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4948" t="s">
         <v>193</v>
@@ -64808,7 +64918,7 @@
     </row>
     <row r="4961">
       <c r="A4961" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B4961" t="s">
         <v>194</v>
@@ -64984,7 +65094,7 @@
     </row>
     <row r="4983">
       <c r="A4983" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B4983" t="s">
         <v>194</v>
@@ -65312,7 +65422,7 @@
     </row>
     <row r="5024">
       <c r="A5024" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B5024" t="s">
         <v>197</v>
@@ -65387,7 +65497,7 @@
         <v>199</v>
       </c>
       <c r="B5033" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5034">
@@ -65632,7 +65742,7 @@
     </row>
     <row r="5064">
       <c r="A5064" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5064" t="s">
         <v>202</v>
@@ -65728,7 +65838,7 @@
     </row>
     <row r="5076">
       <c r="A5076" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5076" t="s">
         <v>203</v>
@@ -66168,7 +66278,7 @@
     </row>
     <row r="5131">
       <c r="A5131" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B5131" t="s">
         <v>208</v>
@@ -66427,7 +66537,7 @@
         <v>210</v>
       </c>
       <c r="B5163" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5164">
@@ -66568,7 +66678,7 @@
     </row>
     <row r="5181">
       <c r="A5181" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5181" t="s">
         <v>212</v>
@@ -66600,7 +66710,7 @@
     </row>
     <row r="5185">
       <c r="A5185" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B5185" t="s">
         <v>213</v>
@@ -66776,7 +66886,7 @@
     </row>
     <row r="5207">
       <c r="A5207" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B5207" t="s">
         <v>214</v>
@@ -66784,7 +66894,7 @@
     </row>
     <row r="5208">
       <c r="A5208" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B5208" t="s">
         <v>215</v>
@@ -67552,7 +67662,7 @@
     </row>
     <row r="5304">
       <c r="A5304" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5304" t="s">
         <v>225</v>
@@ -68040,7 +68150,7 @@
     </row>
     <row r="5365">
       <c r="A5365" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B5365" t="s">
         <v>231</v>
@@ -68344,7 +68454,7 @@
     </row>
     <row r="5403">
       <c r="A5403" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5403" t="s">
         <v>235</v>
@@ -68728,7 +68838,7 @@
     </row>
     <row r="5451">
       <c r="A5451" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B5451" t="s">
         <v>240</v>
@@ -68867,12 +68977,12 @@
         <v>241</v>
       </c>
       <c r="B5468" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5469">
       <c r="A5469" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5469" t="s">
         <v>241</v>
@@ -68888,7 +68998,7 @@
     </row>
     <row r="5471">
       <c r="A5471" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B5471" t="s">
         <v>241</v>
@@ -69088,7 +69198,7 @@
     </row>
     <row r="5496">
       <c r="A5496" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B5496" t="s">
         <v>244</v>
@@ -69536,7 +69646,7 @@
     </row>
     <row r="5552">
       <c r="A5552" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B5552" t="s">
         <v>251</v>
@@ -70448,7 +70558,7 @@
     </row>
     <row r="5666">
       <c r="A5666" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B5666" t="s">
         <v>263</v>
@@ -70568,7 +70678,7 @@
     </row>
     <row r="5681">
       <c r="A5681" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B5681" t="s">
         <v>265</v>
@@ -70784,7 +70894,7 @@
     </row>
     <row r="5708">
       <c r="A5708" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5708" t="s">
         <v>267</v>
@@ -71048,7 +71158,7 @@
     </row>
     <row r="5741">
       <c r="A5741" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5741" t="s">
         <v>271</v>
@@ -71432,7 +71542,7 @@
     </row>
     <row r="5789">
       <c r="A5789" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B5789" t="s">
         <v>277</v>
@@ -71656,7 +71766,7 @@
     </row>
     <row r="5817">
       <c r="A5817" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B5817" t="s">
         <v>280</v>
@@ -72072,7 +72182,7 @@
     </row>
     <row r="5869">
       <c r="A5869" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B5869" t="s">
         <v>286</v>
@@ -72312,7 +72422,7 @@
     </row>
     <row r="5899">
       <c r="A5899" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B5899" t="s">
         <v>290</v>
@@ -72464,7 +72574,7 @@
     </row>
     <row r="5918">
       <c r="A5918" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B5918" t="s">
         <v>292</v>
@@ -72643,7 +72753,7 @@
         <v>295</v>
       </c>
       <c r="B5940" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5941">
@@ -73192,7 +73302,7 @@
     </row>
     <row r="6009">
       <c r="A6009" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B6009" t="s">
         <v>306</v>
@@ -73888,7 +73998,7 @@
     </row>
     <row r="6096">
       <c r="A6096" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6096" t="s">
         <v>317</v>
@@ -73976,7 +74086,7 @@
     </row>
     <row r="6107">
       <c r="A6107" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6107" t="s">
         <v>319</v>
@@ -74472,7 +74582,7 @@
     </row>
     <row r="6169">
       <c r="A6169" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6169" t="s">
         <v>331</v>
@@ -75152,7 +75262,7 @@
     </row>
     <row r="6254">
       <c r="A6254" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6254" t="s">
         <v>346</v>
@@ -75264,7 +75374,7 @@
     </row>
     <row r="6268">
       <c r="A6268" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6268" t="s">
         <v>347</v>
@@ -75392,7 +75502,7 @@
     </row>
     <row r="6284">
       <c r="A6284" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6284" t="s">
         <v>350</v>
@@ -75440,7 +75550,7 @@
     </row>
     <row r="6290">
       <c r="A6290" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6290" t="s">
         <v>351</v>
@@ -75792,7 +75902,7 @@
     </row>
     <row r="6334">
       <c r="A6334" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B6334" t="s">
         <v>358</v>
@@ -75872,7 +75982,7 @@
     </row>
     <row r="6344">
       <c r="A6344" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6344" t="s">
         <v>360</v>
@@ -76024,7 +76134,7 @@
     </row>
     <row r="6363">
       <c r="A6363" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6363" t="s">
         <v>362</v>
@@ -76048,7 +76158,7 @@
     </row>
     <row r="6366">
       <c r="A6366" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B6366" t="s">
         <v>362</v>
@@ -76096,7 +76206,7 @@
     </row>
     <row r="6372">
       <c r="A6372" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6372" t="s">
         <v>363</v>
@@ -76312,7 +76422,7 @@
     </row>
     <row r="6399">
       <c r="A6399" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6399" t="s">
         <v>368</v>
@@ -76352,7 +76462,7 @@
     </row>
     <row r="6404">
       <c r="A6404" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6404" t="s">
         <v>369</v>
@@ -76571,7 +76681,7 @@
         <v>373</v>
       </c>
       <c r="B6431" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6432">
@@ -76595,7 +76705,7 @@
         <v>373</v>
       </c>
       <c r="B6434" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6435">
@@ -76680,7 +76790,7 @@
     </row>
     <row r="6445">
       <c r="A6445" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6445" t="s">
         <v>374</v>
@@ -76760,7 +76870,7 @@
     </row>
     <row r="6455">
       <c r="A6455" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6455" t="s">
         <v>376</v>
@@ -77267,7 +77377,7 @@
         <v>390</v>
       </c>
       <c r="B6518" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6519">
@@ -77296,7 +77406,7 @@
     </row>
     <row r="6522">
       <c r="A6522" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="B6522" t="s">
         <v>391</v>
@@ -77328,7 +77438,7 @@
     </row>
     <row r="6526">
       <c r="A6526" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6526" t="s">
         <v>392</v>
@@ -77635,7 +77745,7 @@
         <v>401</v>
       </c>
       <c r="B6564" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6565">
@@ -78347,7 +78457,7 @@
         <v>423</v>
       </c>
       <c r="B6653" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6654">
@@ -78416,7 +78526,7 @@
     </row>
     <row r="6662">
       <c r="A6662" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B6662" t="s">
         <v>426</v>
@@ -78656,7 +78766,7 @@
     </row>
     <row r="6692">
       <c r="A6692" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6692" t="s">
         <v>432</v>
@@ -78883,7 +78993,7 @@
         <v>437</v>
       </c>
       <c r="B6720" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6721">
@@ -79040,7 +79150,7 @@
     </row>
     <row r="6740">
       <c r="A6740" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6740" t="s">
         <v>442</v>
@@ -79571,7 +79681,7 @@
         <v>461</v>
       </c>
       <c r="B6806" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6807">
@@ -79592,7 +79702,7 @@
     </row>
     <row r="6809">
       <c r="A6809" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6809" t="s">
         <v>461</v>
@@ -79640,7 +79750,7 @@
     </row>
     <row r="6815">
       <c r="A6815" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6815" t="s">
         <v>463</v>
@@ -79659,7 +79769,7 @@
         <v>464</v>
       </c>
       <c r="B6817" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6818">
@@ -79800,7 +79910,7 @@
     </row>
     <row r="6835">
       <c r="A6835" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B6835" t="s">
         <v>468</v>
@@ -80083,7 +80193,7 @@
         <v>478</v>
       </c>
       <c r="B6870" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6871">
@@ -80104,7 +80214,7 @@
     </row>
     <row r="6873">
       <c r="A6873" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B6873" t="s">
         <v>479</v>
@@ -80144,7 +80254,7 @@
     </row>
     <row r="6878">
       <c r="A6878" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6878" t="s">
         <v>480</v>
@@ -80368,7 +80478,7 @@
     </row>
     <row r="6906">
       <c r="A6906" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B6906" t="s">
         <v>490</v>
@@ -80683,7 +80793,7 @@
         <v>501</v>
       </c>
       <c r="B6945" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6946">
@@ -80827,7 +80937,7 @@
         <v>507</v>
       </c>
       <c r="B6963" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6964">
@@ -81072,7 +81182,7 @@
     </row>
     <row r="6994">
       <c r="A6994" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B6994" t="s">
         <v>516</v>
@@ -81851,7 +81961,7 @@
         <v>557</v>
       </c>
       <c r="B7091" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7092">
@@ -82632,7 +82742,7 @@
     </row>
     <row r="7189">
       <c r="A7189" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B7189" t="s">
         <v>600</v>
@@ -82816,7 +82926,7 @@
     </row>
     <row r="7212">
       <c r="A7212" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B7212" t="s">
         <v>611</v>
@@ -82880,7 +82990,7 @@
     </row>
     <row r="7220">
       <c r="A7220" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B7220" t="s">
         <v>615</v>
@@ -83288,7 +83398,7 @@
     </row>
     <row r="7271">
       <c r="A7271" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B7271" t="s">
         <v>647</v>
@@ -83384,7 +83494,7 @@
     </row>
     <row r="7283">
       <c r="A7283" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B7283" t="s">
         <v>653</v>
@@ -83784,7 +83894,7 @@
     </row>
     <row r="7333">
       <c r="A7333" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B7333" t="s">
         <v>687</v>
@@ -84184,7 +84294,7 @@
     </row>
     <row r="7383">
       <c r="A7383" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B7383" t="s">
         <v>733</v>
@@ -84608,7 +84718,7 @@
     </row>
     <row r="7436">
       <c r="A7436" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B7436" t="s">
         <v>781</v>
@@ -84784,7 +84894,7 @@
     </row>
     <row r="7458">
       <c r="A7458" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B7458" t="s">
         <v>829</v>
@@ -84856,7 +84966,7 @@
     </row>
     <row r="7467">
       <c r="A7467" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B7467" t="s">
         <v>855</v>

--- a/result/interactions_download/Pancreatic_cancer_precog_mut.xlsx
+++ b/result/interactions_download/Pancreatic_cancer_precog_mut.xlsx
@@ -4557,7 +4557,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
         <v>2.328</v>
@@ -5257,7 +5257,7 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
         <v>-2.138</v>
@@ -6577,7 +6577,7 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C148" t="n">
         <v>2.061</v>
@@ -10237,7 +10237,7 @@
         <v>339</v>
       </c>
       <c r="B331" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C331" t="n">
         <v>-2.024</v>
@@ -11897,7 +11897,7 @@
         <v>422</v>
       </c>
       <c r="B414" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C414" t="n">
         <v>2.455</v>
@@ -11997,7 +11997,7 @@
         <v>427</v>
       </c>
       <c r="B419" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C419" t="n">
         <v>2.457</v>
@@ -21617,7 +21617,7 @@
         <v>908</v>
       </c>
       <c r="B900" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C900" t="n">
         <v>-2.391</v>
@@ -22157,7 +22157,7 @@
         <v>935</v>
       </c>
       <c r="B927" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C927" t="n">
         <v>2.006</v>
